--- a/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>DCAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,106 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42613</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>500</v>
       </c>
       <c r="G8" s="3">
         <v>1100</v>
       </c>
       <c r="H8" s="3">
+        <v>500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -776,8 +783,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -785,23 +798,23 @@
         <v>1100</v>
       </c>
       <c r="E9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -820,32 +833,38 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -864,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,11 +1023,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1014,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,41 +1124,43 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E17" s="3">
         <v>1100</v>
       </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="G17" s="3">
         <v>1100</v>
       </c>
       <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1115,10 +1168,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,7 +1185,7 @@
         <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1135,23 +1194,23 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1159,10 +1218,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,70 +1244,78 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-100</v>
-      </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1267,8 +1340,14 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1276,87 +1355,99 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1399,8 +1490,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42613</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,8 +2139,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1980,19 +2153,19 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>200</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>100</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
@@ -2006,14 +2179,20 @@
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2038,11 +2217,11 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
@@ -2050,14 +2229,20 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2071,16 +2256,16 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2094,37 +2279,43 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>500</v>
+      </c>
+      <c r="F44" s="3">
         <v>600</v>
-      </c>
-      <c r="E44" s="3">
-        <v>200</v>
-      </c>
-      <c r="F44" s="3">
-        <v>300</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
       <c r="H44" s="3">
+        <v>300</v>
+      </c>
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>200</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -2138,14 +2329,20 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2153,25 +2350,25 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2188,32 +2385,38 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2226,14 +2429,20 @@
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,37 +2485,43 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2320,8 +2535,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2364,8 +2585,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2496,8 +2735,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,8 +2785,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2549,23 +2800,23 @@
         <v>900</v>
       </c>
       <c r="E54" s="3">
+        <v>900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>900</v>
+      </c>
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2578,14 +2829,20 @@
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,69 +2879,77 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1000</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
@@ -2690,11 +2957,11 @@
       <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1000</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -2702,102 +2969,120 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F60" s="3">
         <v>4100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +3125,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2857,20 +3148,20 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -2878,14 +3169,20 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F66" s="3">
         <v>4100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-8400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42613</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3643,11 +4040,11 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -3655,11 +4052,11 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3673,8 +4070,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,29 +4320,35 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -3935,10 +4368,16 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3967,25 +4408,25 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3999,8 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4099,25 +4558,25 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4131,8 +4590,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,13 +4810,19 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4340,16 +4831,16 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4367,10 +4858,16 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,8 +4910,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4425,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -4437,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -4455,6 +4958,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>DCAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,113 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -789,35 +793,38 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -839,34 +846,37 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>100</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1029,8 +1049,8 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,44 +1152,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1174,10 +1201,13 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1191,29 +1221,29 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1224,10 +1254,13 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,37 +1279,38 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
@@ -1285,40 +1319,43 @@
         <v>-100</v>
       </c>
       <c r="O20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1361,17 +1401,17 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1379,75 +1419,81 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,37 +1913,40 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
@@ -1885,69 +1955,75 @@
         <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,13 +2227,14 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2159,16 +2246,16 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
+      <c r="K41" s="3">
+        <v>100</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
@@ -2185,14 +2272,17 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2223,8 +2313,8 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
@@ -2235,14 +2325,17 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2262,13 +2355,13 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2285,40 +2378,43 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>500</v>
       </c>
       <c r="F44" s="3">
+        <v>500</v>
+      </c>
+      <c r="G44" s="3">
         <v>600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>200</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -2335,14 +2431,17 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2350,11 +2449,11 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2362,16 +2461,16 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2403,23 +2505,23 @@
         <v>600</v>
       </c>
       <c r="F46" s="3">
+        <v>600</v>
+      </c>
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>500</v>
       </c>
       <c r="I46" s="3">
         <v>500</v>
       </c>
       <c r="J46" s="3">
+        <v>500</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2435,14 +2537,17 @@
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2503,7 +2611,7 @@
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2512,10 +2620,10 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2523,8 +2631,8 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2914,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2806,20 +2932,20 @@
         <v>900</v>
       </c>
       <c r="G54" s="3">
+        <v>900</v>
+      </c>
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2835,14 +2961,17 @@
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2893,29 +3024,29 @@
         <v>1100</v>
       </c>
       <c r="F57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
       <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2925,34 +3056,37 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
-        <v>700</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1400</v>
       </c>
       <c r="F58" s="3">
         <v>1400</v>
       </c>
       <c r="G58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1000</v>
       </c>
       <c r="J58" s="3">
         <v>1000</v>
@@ -2963,8 +3097,8 @@
       <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>1000</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -2975,47 +3109,50 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>200</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3025,47 +3162,50 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E60" s="3">
         <v>5500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1700</v>
       </c>
       <c r="K60" s="3">
         <v>1700</v>
       </c>
       <c r="L60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3075,14 +3215,17 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3154,17 +3300,17 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3175,14 +3321,17 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,41 +3486,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1700</v>
       </c>
       <c r="K66" s="3">
         <v>1700</v>
       </c>
       <c r="L66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3375,14 +3533,17 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,40 +3772,43 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-9300</v>
       </c>
       <c r="H72" s="3">
         <v>-9300</v>
       </c>
       <c r="I72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-9000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-8300</v>
       </c>
       <c r="L72" s="3">
         <v>-8300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
+      <c r="M72" s="3">
+        <v>-8300</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
@@ -3645,14 +3819,17 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>-8400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,41 +3984,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3845,14 +4031,17 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4046,8 +4245,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -4058,8 +4257,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4338,20 +4555,20 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -4374,10 +4591,13 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4414,11 +4635,11 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4428,8 +4649,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4564,11 +4794,11 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4578,8 +4808,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,35 +5059,38 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4864,10 +5110,13 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,13 +5165,16 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4934,17 +5186,17 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>DCAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -752,29 +756,29 @@
         <v>800</v>
       </c>
       <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -796,38 +800,41 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -849,37 +856,40 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>100</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -902,8 +912,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1052,8 +1072,8 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,8 +1179,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1162,38 +1189,38 @@
         <v>900</v>
       </c>
       <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1204,10 +1231,13 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1224,29 +1254,29 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1257,10 +1287,13 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,40 +1313,41 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
@@ -1322,43 +1356,46 @@
         <v>-100</v>
       </c>
       <c r="P20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1386,8 +1423,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1404,17 +1444,17 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1422,78 +1462,84 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,40 +1983,43 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
@@ -1958,72 +2028,78 @@
         <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,16 +2314,17 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2249,16 +2336,16 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
+      <c r="L41" s="3">
+        <v>100</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
@@ -2275,14 +2362,17 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2316,8 +2406,8 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
@@ -2328,14 +2418,17 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2358,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2381,43 +2474,46 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
-      </c>
-      <c r="E44" s="3">
-        <v>500</v>
       </c>
       <c r="F44" s="3">
         <v>500</v>
       </c>
       <c r="G44" s="3">
+        <v>500</v>
+      </c>
+      <c r="H44" s="3">
         <v>600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>200</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2434,14 +2530,17 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2452,11 +2551,11 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2464,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2493,13 +2592,16 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E46" s="3">
         <v>600</v>
@@ -2508,23 +2610,23 @@
         <v>600</v>
       </c>
       <c r="G46" s="3">
+        <v>600</v>
+      </c>
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>500</v>
       </c>
       <c r="J46" s="3">
         <v>500</v>
       </c>
       <c r="K46" s="3">
+        <v>500</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2540,14 +2642,17 @@
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2704,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2614,7 +2722,7 @@
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -2623,10 +2731,10 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2634,8 +2742,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2652,8 +2760,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2816,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,13 +3040,16 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E54" s="3">
         <v>900</v>
@@ -2935,20 +3061,20 @@
         <v>900</v>
       </c>
       <c r="H54" s="3">
+        <v>900</v>
+      </c>
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2964,14 +3090,17 @@
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3142,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3027,29 +3158,29 @@
         <v>1100</v>
       </c>
       <c r="G57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
       </c>
       <c r="K57" s="3">
         <v>500</v>
       </c>
       <c r="L57" s="3">
+        <v>500</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3059,14 +3190,17 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="3">
-        <v>700</v>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3074,22 +3208,22 @@
         <v>1400</v>
       </c>
       <c r="E58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F58" s="3">
         <v>1500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1400</v>
       </c>
       <c r="G58" s="3">
         <v>1400</v>
       </c>
       <c r="H58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I58" s="3">
         <v>1300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1000</v>
       </c>
       <c r="K58" s="3">
         <v>1000</v>
@@ -3100,8 +3234,8 @@
       <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>1000</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -3112,50 +3246,53 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>200</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3165,50 +3302,53 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1700</v>
       </c>
       <c r="L60" s="3">
         <v>1700</v>
       </c>
       <c r="M60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3218,14 +3358,17 @@
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,43 +3420,46 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3324,14 +3470,17 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,44 +3644,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1700</v>
       </c>
       <c r="L66" s="3">
         <v>1700</v>
       </c>
       <c r="M66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3536,14 +3694,17 @@
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,13 +3834,16 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,43 +3946,46 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-9300</v>
       </c>
       <c r="I72" s="3">
         <v>-9300</v>
       </c>
       <c r="J72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-9000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-8300</v>
       </c>
       <c r="M72" s="3">
         <v>-8300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
+      <c r="N72" s="3">
+        <v>-8300</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
@@ -3822,14 +3996,17 @@
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>-8400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,44 +4170,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4034,14 +4220,17 @@
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4248,8 +4447,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -4260,8 +4459,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4757,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4558,20 +4775,20 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -4594,10 +4811,13 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4837,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4638,11 +4859,11 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4652,8 +4873,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5003,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4797,11 +5027,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
@@ -4811,8 +5041,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4829,8 +5059,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,38 +5305,41 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5113,10 +5359,13 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,17 +5417,20 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -5189,17 +5441,17 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5219,6 +5471,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>DCAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,126 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E8" s="3">
         <v>800</v>
       </c>
       <c r="F8" s="3">
+        <v>800</v>
+      </c>
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -803,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -812,32 +818,32 @@
         <v>600</v>
       </c>
       <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
@@ -859,40 +865,43 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>100</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -915,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1075,8 +1094,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1105,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,50 +1205,51 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>900</v>
+        <v>1600</v>
       </c>
       <c r="E17" s="3">
         <v>900</v>
       </c>
       <c r="F17" s="3">
+        <v>900</v>
+      </c>
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1234,15 +1260,18 @@
         <v>0</v>
       </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>-700</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
@@ -1257,29 +1286,29 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1290,10 +1319,13 @@
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,43 +1346,44 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
@@ -1359,46 +1392,49 @@
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1426,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1447,17 +1486,17 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1465,81 +1504,87 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,43 +2052,46 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
@@ -2031,75 +2100,81 @@
         <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,19 +2400,20 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -2339,16 +2425,16 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>100</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
@@ -2365,14 +2451,17 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2409,8 +2498,8 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
+      <c r="O42" s="3">
+        <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
@@ -2421,14 +2510,17 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2454,13 +2546,13 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2477,14 +2569,17 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2492,31 +2587,31 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
         <v>300</v>
-      </c>
-      <c r="F44" s="3">
-        <v>500</v>
       </c>
       <c r="G44" s="3">
         <v>500</v>
       </c>
       <c r="H44" s="3">
+        <v>500</v>
+      </c>
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>200</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2533,19 +2628,22 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2554,11 +2652,11 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2566,16 +2664,16 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2595,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2604,7 +2705,7 @@
         <v>500</v>
       </c>
       <c r="E46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F46" s="3">
         <v>600</v>
@@ -2613,23 +2714,23 @@
         <v>600</v>
       </c>
       <c r="H46" s="3">
+        <v>600</v>
+      </c>
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>500</v>
       </c>
       <c r="K46" s="3">
         <v>500</v>
       </c>
       <c r="L46" s="3">
+        <v>500</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2645,14 +2746,17 @@
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,13 +2811,16 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
@@ -2725,7 +2832,7 @@
         <v>300</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -2734,10 +2841,10 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -2745,8 +2852,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2763,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2819,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2987,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,16 +3165,19 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
         <v>800</v>
-      </c>
-      <c r="E54" s="3">
-        <v>900</v>
       </c>
       <c r="F54" s="3">
         <v>900</v>
@@ -3064,20 +3189,20 @@
         <v>900</v>
       </c>
       <c r="I54" s="3">
+        <v>900</v>
+      </c>
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3093,14 +3218,17 @@
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
+      <c r="S54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,13 +3272,14 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E57" s="3">
         <v>1100</v>
@@ -3161,29 +3291,29 @@
         <v>1100</v>
       </c>
       <c r="H57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3193,40 +3323,43 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S57" s="3">
-        <v>700</v>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
         <v>1400</v>
       </c>
       <c r="F58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G58" s="3">
         <v>1500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1400</v>
       </c>
       <c r="H58" s="3">
         <v>1400</v>
       </c>
       <c r="I58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J58" s="3">
         <v>1300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1000</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
@@ -3237,8 +3370,8 @@
       <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>1000</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -3249,53 +3382,56 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>200</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3305,53 +3441,56 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E60" s="3">
         <v>5000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1700</v>
       </c>
       <c r="M60" s="3">
         <v>1700</v>
       </c>
       <c r="N60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3361,19 +3500,22 @@
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3423,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3449,20 +3594,20 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -3473,14 +3618,17 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,8 +3801,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3656,38 +3813,38 @@
         <v>5000</v>
       </c>
       <c r="E66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1700</v>
       </c>
       <c r="M66" s="3">
         <v>1700</v>
       </c>
       <c r="N66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3697,14 +3854,17 @@
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,17 +4001,20 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>100</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,46 +4119,49 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-9300</v>
       </c>
       <c r="J72" s="3">
         <v>-9300</v>
       </c>
       <c r="K72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-9000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-8300</v>
       </c>
       <c r="N72" s="3">
         <v>-8300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
+      <c r="O72" s="3">
+        <v>-8300</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
@@ -3999,14 +4172,17 @@
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>-8400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,47 +4355,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4223,14 +4408,17 @@
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4450,8 +4648,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -4462,8 +4660,8 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4480,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,13 +4973,16 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4778,20 +4994,20 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4814,10 +5030,13 @@
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,13 +5057,14 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4862,11 +5082,11 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4876,8 +5096,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4894,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,13 +5232,16 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5030,11 +5259,11 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5044,8 +5273,8 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5062,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,41 +5550,44 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5362,10 +5607,13 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5429,11 +5680,11 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5444,17 +5695,17 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5474,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>DCAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,133 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>800</v>
       </c>
       <c r="F8" s="3">
         <v>800</v>
       </c>
       <c r="G8" s="3">
+        <v>800</v>
+      </c>
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -809,44 +813,47 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E9" s="3">
         <v>600</v>
       </c>
       <c r="F9" s="3">
+        <v>600</v>
+      </c>
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -868,43 +875,46 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>100</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,37 +1085,40 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,53 +1232,54 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>900</v>
       </c>
       <c r="F17" s="3">
         <v>900</v>
       </c>
       <c r="G17" s="3">
+        <v>900</v>
+      </c>
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1263,18 +1290,21 @@
         <v>0</v>
       </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1289,29 +1319,29 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1322,10 +1352,13 @@
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,46 +1380,47 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
@@ -1395,49 +1429,52 @@
         <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1465,13 +1502,16 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1489,17 +1529,17 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1507,84 +1547,90 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,46 +2122,49 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
@@ -2103,78 +2173,84 @@
         <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2487,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2410,13 +2497,13 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2428,16 +2515,16 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
+      <c r="N41" s="3">
+        <v>100</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
@@ -2454,14 +2541,17 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2501,8 +2591,8 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
+      <c r="P42" s="3">
+        <v>0</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
@@ -2513,14 +2603,17 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2549,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2572,49 +2665,52 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
       </c>
       <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
         <v>300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>500</v>
       </c>
       <c r="I44" s="3">
+        <v>500</v>
+      </c>
+      <c r="J44" s="3">
         <v>600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>200</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2631,23 +2727,26 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2655,11 +2754,11 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2667,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2696,19 +2795,22 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E46" s="3">
         <v>500</v>
       </c>
       <c r="F46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G46" s="3">
         <v>600</v>
@@ -2717,23 +2819,23 @@
         <v>600</v>
       </c>
       <c r="I46" s="3">
+        <v>600</v>
+      </c>
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>500</v>
       </c>
       <c r="L46" s="3">
         <v>500</v>
       </c>
       <c r="M46" s="3">
+        <v>500</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2749,14 +2851,17 @@
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
+      <c r="T46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,16 +2919,19 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
@@ -2835,7 +2943,7 @@
         <v>300</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -2844,10 +2952,10 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -2855,8 +2963,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,19 +3291,22 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>800</v>
-      </c>
-      <c r="F54" s="3">
-        <v>900</v>
       </c>
       <c r="G54" s="3">
         <v>900</v>
@@ -3192,20 +3318,20 @@
         <v>900</v>
       </c>
       <c r="J54" s="3">
+        <v>900</v>
+      </c>
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3221,14 +3347,17 @@
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
+      <c r="T54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,16 +3403,17 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1100</v>
       </c>
       <c r="F57" s="3">
         <v>1100</v>
@@ -3294,29 +3425,29 @@
         <v>1100</v>
       </c>
       <c r="I57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3326,43 +3457,46 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T57" s="3">
-        <v>700</v>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1400</v>
       </c>
       <c r="F58" s="3">
         <v>1400</v>
       </c>
       <c r="G58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H58" s="3">
         <v>1500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1400</v>
       </c>
       <c r="I58" s="3">
         <v>1400</v>
       </c>
       <c r="J58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1000</v>
       </c>
       <c r="M58" s="3">
         <v>1000</v>
@@ -3373,8 +3507,8 @@
       <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>1000</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3385,56 +3519,59 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>200</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3444,56 +3581,59 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1700</v>
       </c>
       <c r="N60" s="3">
         <v>1700</v>
       </c>
       <c r="O60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3503,23 +3643,26 @@
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3568,8 +3711,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3597,20 +3743,20 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3621,14 +3767,17 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,50 +3959,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5000</v>
+        <v>6300</v>
       </c>
       <c r="E66" s="3">
         <v>5000</v>
       </c>
       <c r="F66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1700</v>
       </c>
       <c r="N66" s="3">
         <v>1700</v>
       </c>
       <c r="O66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3857,14 +4015,17 @@
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4013,11 +4181,11 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>100</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,49 +4293,52 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-9300</v>
       </c>
       <c r="K72" s="3">
         <v>-9300</v>
       </c>
       <c r="L72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-9000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-8300</v>
       </c>
       <c r="O72" s="3">
         <v>-8300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
+      <c r="P72" s="3">
+        <v>-8300</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
@@ -4175,14 +4349,17 @@
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>-8400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,50 +4541,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4411,14 +4597,17 @@
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>-1300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4651,8 +4850,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -4663,8 +4862,8 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5190,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4985,7 +5202,7 @@
         <v>200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -4997,20 +5214,20 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -5033,10 +5250,13 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,17 +5278,18 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -5085,11 +5306,11 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5099,8 +5320,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,17 +5462,20 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5262,11 +5492,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5276,8 +5506,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5562,35 +5808,35 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5610,10 +5856,13 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5920,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5683,11 +5935,11 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5698,17 +5950,17 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>DCAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,140 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>800</v>
       </c>
       <c r="G8" s="3">
         <v>800</v>
       </c>
       <c r="H8" s="3">
+        <v>800</v>
+      </c>
+      <c r="I8" s="3">
         <v>1300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -816,8 +820,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -825,38 +832,38 @@
         <v>800</v>
       </c>
       <c r="E9" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F9" s="3">
         <v>600</v>
       </c>
       <c r="G9" s="3">
+        <v>600</v>
+      </c>
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
@@ -878,46 +885,49 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>100</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1114,14 +1134,14 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,56 +1259,57 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>900</v>
       </c>
       <c r="G17" s="3">
         <v>900</v>
       </c>
       <c r="H17" s="3">
+        <v>900</v>
+      </c>
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1293,10 +1320,13 @@
         <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1322,29 +1352,29 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1355,10 +1385,13 @@
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,49 +1414,50 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
@@ -1432,52 +1466,55 @@
         <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1505,8 +1542,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1514,7 +1554,7 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1532,17 +1572,17 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1550,87 +1590,93 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,49 +2192,52 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
@@ -2176,81 +2246,87 @@
         <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2574,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2500,13 +2587,13 @@
         <v>200</v>
       </c>
       <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2518,16 +2605,16 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
+      <c r="O41" s="3">
+        <v>100</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
@@ -2544,14 +2631,17 @@
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2594,8 +2684,8 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
+      <c r="Q42" s="3">
+        <v>0</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
@@ -2606,14 +2696,17 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2645,13 +2738,13 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2668,52 +2761,55 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
-      </c>
-      <c r="E44" s="3">
-        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
       </c>
       <c r="G44" s="3">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>500</v>
       </c>
       <c r="I44" s="3">
         <v>500</v>
       </c>
       <c r="J44" s="3">
+        <v>500</v>
+      </c>
+      <c r="K44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>200</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="O44" s="3">
+        <v>200</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
@@ -2730,14 +2826,17 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2745,11 +2844,11 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2757,11 +2856,11 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -2769,16 +2868,16 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2798,8 +2897,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2807,13 +2909,13 @@
         <v>700</v>
       </c>
       <c r="E46" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F46" s="3">
         <v>500</v>
       </c>
       <c r="G46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H46" s="3">
         <v>600</v>
@@ -2822,23 +2924,23 @@
         <v>600</v>
       </c>
       <c r="J46" s="3">
+        <v>600</v>
+      </c>
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>500</v>
       </c>
       <c r="M46" s="3">
         <v>500</v>
       </c>
       <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2854,14 +2956,17 @@
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
+      <c r="U46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,19 +3027,22 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
@@ -2946,7 +3054,7 @@
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -2955,10 +3063,10 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
@@ -2966,8 +3074,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3417,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3303,13 +3429,13 @@
         <v>1600</v>
       </c>
       <c r="E54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F54" s="3">
         <v>1200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>900</v>
       </c>
       <c r="H54" s="3">
         <v>900</v>
@@ -3321,20 +3447,20 @@
         <v>900</v>
       </c>
       <c r="K54" s="3">
+        <v>900</v>
+      </c>
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3350,14 +3476,17 @@
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U54" s="3">
-        <v>0</v>
+      <c r="U54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,19 +3534,20 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1100</v>
       </c>
       <c r="G57" s="3">
         <v>1100</v>
@@ -3428,29 +3559,29 @@
         <v>1100</v>
       </c>
       <c r="J57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
+        <v>500</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3460,46 +3591,49 @@
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U57" s="3">
-        <v>700</v>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1400</v>
       </c>
       <c r="G58" s="3">
         <v>1400</v>
       </c>
       <c r="H58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I58" s="3">
         <v>1500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1400</v>
       </c>
       <c r="J58" s="3">
         <v>1400</v>
       </c>
       <c r="K58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L58" s="3">
         <v>1300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1000</v>
       </c>
       <c r="N58" s="3">
         <v>1000</v>
@@ -3510,8 +3644,8 @@
       <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>1000</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3522,59 +3656,62 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>200</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3584,59 +3721,62 @@
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
         <v>6000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1700</v>
       </c>
       <c r="O60" s="3">
         <v>1700</v>
       </c>
       <c r="P60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3646,14 +3786,17 @@
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3661,11 +3804,11 @@
         <v>400</v>
       </c>
       <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3746,20 +3892,20 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -3770,14 +3916,17 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,53 +4117,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>5000</v>
       </c>
       <c r="F66" s="3">
         <v>5000</v>
       </c>
       <c r="G66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1700</v>
       </c>
       <c r="O66" s="3">
         <v>1700</v>
       </c>
       <c r="P66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4018,14 +4176,17 @@
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,23 +4337,26 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>100</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,52 +4467,55 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-9300</v>
       </c>
       <c r="L72" s="3">
         <v>-9300</v>
       </c>
       <c r="M72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-9000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-8300</v>
       </c>
       <c r="P72" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
+      <c r="Q72" s="3">
+        <v>-8300</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
@@ -4352,14 +4526,17 @@
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>-8400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,53 +4727,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4600,14 +4786,17 @@
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3">
         <v>-1300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4853,8 +5052,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -4865,8 +5064,8 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,19 +5407,22 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>200</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -5217,20 +5434,20 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -5253,10 +5470,13 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,20 +5499,21 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -5309,11 +5530,11 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5323,8 +5544,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,20 +5692,23 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5495,11 +5725,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5509,8 +5739,8 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,47 +6042,50 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5859,10 +6105,13 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,13 +6172,16 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5938,11 +6190,11 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -5953,17 +6205,17 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5983,6 +6235,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>DCAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,147 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>800</v>
       </c>
       <c r="H8" s="3">
         <v>800</v>
       </c>
       <c r="I8" s="3">
+        <v>800</v>
+      </c>
+      <c r="J8" s="3">
         <v>1300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1000</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -823,8 +827,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -835,38 +842,38 @@
         <v>800</v>
       </c>
       <c r="F9" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G9" s="3">
         <v>600</v>
       </c>
       <c r="H9" s="3">
+        <v>600</v>
+      </c>
+      <c r="I9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>900</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
@@ -888,49 +895,52 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3">
+        <v>100</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -953,8 +963,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1137,14 +1157,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1173,8 +1193,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,8 +1286,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1269,50 +1296,50 @@
         <v>1100</v>
       </c>
       <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>900</v>
       </c>
       <c r="H17" s="3">
         <v>900</v>
       </c>
       <c r="I17" s="3">
+        <v>900</v>
+      </c>
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
@@ -1323,24 +1350,27 @@
         <v>0</v>
       </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1355,29 +1385,29 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
@@ -1388,10 +1418,13 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,52 +1448,53 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
@@ -1469,55 +1503,58 @@
         <v>-100</v>
       </c>
       <c r="T20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1545,8 +1582,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1557,7 +1597,7 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1575,17 +1615,17 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1593,90 +1633,96 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1786,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,52 +2262,55 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
@@ -2249,84 +2319,90 @@
         <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,13 +2661,14 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
@@ -2590,13 +2677,13 @@
         <v>200</v>
       </c>
       <c r="G41" s="3">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -2608,16 +2695,16 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
+      <c r="P41" s="3">
+        <v>100</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
@@ -2634,14 +2721,17 @@
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2687,8 +2777,8 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
+      <c r="R42" s="3">
+        <v>0</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>4</v>
@@ -2699,14 +2789,17 @@
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2741,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2764,55 +2857,58 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>500</v>
-      </c>
-      <c r="F44" s="3">
-        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
       <c r="H44" s="3">
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
         <v>300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>500</v>
       </c>
       <c r="J44" s="3">
         <v>500</v>
       </c>
       <c r="K44" s="3">
+        <v>500</v>
+      </c>
+      <c r="L44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>300</v>
-      </c>
-      <c r="N44" s="3">
-        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="P44" s="3">
+        <v>200</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -2829,14 +2925,17 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2847,11 +2946,11 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2859,11 +2958,11 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2871,16 +2970,16 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2900,25 +2999,28 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E46" s="3">
         <v>700</v>
       </c>
       <c r="F46" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G46" s="3">
         <v>500</v>
       </c>
       <c r="H46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I46" s="3">
         <v>600</v>
@@ -2927,23 +3029,23 @@
         <v>600</v>
       </c>
       <c r="K46" s="3">
+        <v>600</v>
+      </c>
+      <c r="L46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>500</v>
       </c>
       <c r="N46" s="3">
         <v>500</v>
       </c>
       <c r="O46" s="3">
+        <v>500</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2959,14 +3061,17 @@
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
+      <c r="V46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,8 +3135,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3039,13 +3147,13 @@
         <v>800</v>
       </c>
       <c r="E48" s="3">
+        <v>800</v>
+      </c>
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
@@ -3057,7 +3165,7 @@
         <v>300</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -3066,10 +3174,10 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
@@ -3077,8 +3185,8 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3095,8 +3203,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3271,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3407,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3355,8 +3475,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,25 +3543,28 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="E54" s="3">
         <v>1600</v>
       </c>
       <c r="F54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G54" s="3">
         <v>1200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>900</v>
       </c>
       <c r="I54" s="3">
         <v>900</v>
@@ -3450,20 +3576,20 @@
         <v>900</v>
       </c>
       <c r="L54" s="3">
+        <v>900</v>
+      </c>
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3479,14 +3605,17 @@
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V54" s="3">
-        <v>0</v>
+      <c r="V54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3665,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3544,13 +3675,13 @@
         <v>1400</v>
       </c>
       <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1100</v>
       </c>
       <c r="H57" s="3">
         <v>1100</v>
@@ -3562,29 +3693,29 @@
         <v>1100</v>
       </c>
       <c r="K57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
-      </c>
-      <c r="N57" s="3">
-        <v>500</v>
       </c>
       <c r="O57" s="3">
         <v>500</v>
       </c>
       <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3594,49 +3725,52 @@
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V57" s="3">
-        <v>700</v>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1400</v>
       </c>
       <c r="H58" s="3">
         <v>1400</v>
       </c>
       <c r="I58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J58" s="3">
         <v>1500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1400</v>
       </c>
       <c r="K58" s="3">
         <v>1400</v>
       </c>
       <c r="L58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M58" s="3">
         <v>1300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1000</v>
       </c>
       <c r="O58" s="3">
         <v>1000</v>
@@ -3647,8 +3781,8 @@
       <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="R58" s="3">
+        <v>1000</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3659,62 +3793,65 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>200</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3724,62 +3861,65 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1700</v>
       </c>
       <c r="P60" s="3">
         <v>1700</v>
       </c>
       <c r="Q60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3789,29 +3929,32 @@
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>400</v>
       </c>
       <c r="F61" s="3">
+        <v>400</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3860,8 +4003,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3895,20 +4041,20 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -3919,14 +4065,17 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,56 +4275,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>5000</v>
       </c>
       <c r="G66" s="3">
         <v>5000</v>
       </c>
       <c r="H66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I66" s="3">
         <v>6200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1700</v>
       </c>
       <c r="P66" s="3">
         <v>1700</v>
       </c>
       <c r="Q66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4179,14 +4337,17 @@
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4349,17 +4517,17 @@
         <v>100</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>100</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,55 +4641,58 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-9300</v>
       </c>
       <c r="M72" s="3">
         <v>-9300</v>
       </c>
       <c r="N72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="O72" s="3">
         <v>-9000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-8300</v>
       </c>
       <c r="Q72" s="3">
         <v>-8300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
+      <c r="R72" s="3">
+        <v>-8300</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
@@ -4529,14 +4703,17 @@
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3">
         <v>-8400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-8200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,56 +4913,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4789,14 +4975,17 @@
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W76" s="3">
         <v>-1300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5218,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5055,8 +5254,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -5067,8 +5266,8 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5085,8 +5284,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,22 +5624,25 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>200</v>
       </c>
       <c r="F89" s="3">
         <v>200</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -5437,20 +5654,20 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -5473,10 +5690,13 @@
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,23 +5720,24 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -5533,11 +5754,11 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5547,8 +5768,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5565,8 +5786,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,23 +5922,26 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5728,11 +5958,11 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5742,8 +5972,8 @@
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5760,8 +5990,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,50 +6288,53 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -6108,10 +6354,13 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,17 +6424,20 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -6193,11 +6445,11 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -6208,17 +6460,17 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -6238,6 +6490,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>DCAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,160 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="F8" s="3">
         <v>1200</v>
       </c>
       <c r="G8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>500</v>
       </c>
       <c r="O8" s="3">
         <v>1100</v>
       </c>
       <c r="P8" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -830,56 +837,62 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F9" s="3">
         <v>800</v>
       </c>
       <c r="G9" s="3">
+        <v>800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>800</v>
+      </c>
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1000</v>
       </c>
       <c r="L9" s="3">
         <v>1100</v>
       </c>
       <c r="M9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
@@ -898,16 +911,22 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>400</v>
@@ -916,38 +935,38 @@
         <v>300</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
@@ -966,8 +985,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,17 +1199,17 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1196,8 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1309,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,65 +1338,67 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>1100</v>
       </c>
       <c r="F17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1300</v>
       </c>
       <c r="M17" s="3">
         <v>1100</v>
       </c>
       <c r="N17" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="O17" s="3">
         <v>1100</v>
       </c>
       <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
@@ -1353,30 +1406,36 @@
         <v>0</v>
       </c>
       <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1388,7 +1447,7 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1397,23 +1456,23 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
@@ -1421,10 +1480,16 @@
         <v>0</v>
       </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,118 +1514,126 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-900</v>
       </c>
       <c r="K20" s="3">
         <v>-200</v>
       </c>
       <c r="L20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-100</v>
-      </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
       </c>
       <c r="U20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1585,8 +1658,14 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1600,10 +1679,10 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1618,111 +1697,123 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-300</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1789,8 +1880,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-300</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-300</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,144 +2398,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>900</v>
       </c>
       <c r="K32" s="3">
         <v>200</v>
       </c>
       <c r="L32" s="3">
+        <v>900</v>
+      </c>
+      <c r="M32" s="3">
+        <v>200</v>
+      </c>
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>100</v>
-      </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>100</v>
       </c>
       <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-300</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-300</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,34 +2833,36 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2698,19 +2871,19 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
+      <c r="R41" s="3">
+        <v>100</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
@@ -2724,14 +2897,20 @@
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2780,11 +2959,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>4</v>
@@ -2792,14 +2971,20 @@
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2837,16 +3022,16 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2860,14 +3045,20 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2875,46 +3066,46 @@
         <v>200</v>
       </c>
       <c r="E44" s="3">
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
         <v>600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>600</v>
-      </c>
-      <c r="M44" s="3">
-        <v>200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>300</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
       </c>
       <c r="P44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3">
+        <v>200</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
@@ -2928,14 +3119,20 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
-      <c r="X44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2949,43 +3146,43 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3002,56 +3199,62 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
-      </c>
-      <c r="I46" s="3">
-        <v>600</v>
-      </c>
-      <c r="J46" s="3">
-        <v>600</v>
       </c>
       <c r="K46" s="3">
         <v>600</v>
       </c>
       <c r="L46" s="3">
+        <v>600</v>
+      </c>
+      <c r="M46" s="3">
+        <v>600</v>
+      </c>
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3064,14 +3267,20 @@
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3138,28 +3347,34 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
         <v>800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -3168,31 +3383,31 @@
         <v>300</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3206,8 +3421,14 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3274,8 +3495,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,8 +3643,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3478,8 +3717,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,31 +3791,37 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>900</v>
-      </c>
-      <c r="J54" s="3">
-        <v>900</v>
       </c>
       <c r="K54" s="3">
         <v>900</v>
@@ -3579,23 +3830,23 @@
         <v>900</v>
       </c>
       <c r="M54" s="3">
+        <v>900</v>
+      </c>
+      <c r="N54" s="3">
+        <v>900</v>
+      </c>
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3608,14 +3859,20 @@
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W54" s="3">
-        <v>0</v>
-      </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,28 +3925,30 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
         <v>1400</v>
       </c>
       <c r="F57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1100</v>
       </c>
       <c r="J57" s="3">
         <v>1100</v>
@@ -3696,51 +3957,57 @@
         <v>1100</v>
       </c>
       <c r="L57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
         <v>1500</v>
@@ -3752,31 +4019,31 @@
         <v>1500</v>
       </c>
       <c r="H58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J58" s="3">
         <v>1400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1500</v>
       </c>
       <c r="K58" s="3">
         <v>1400</v>
       </c>
       <c r="L58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M58" s="3">
         <v>1400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O58" s="3">
         <v>1300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1000</v>
       </c>
       <c r="Q58" s="3">
         <v>1000</v>
@@ -3784,11 +4051,11 @@
       <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="S58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T58" s="3">
+        <v>1000</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
@@ -3796,14 +4063,20 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3811,67 +4084,73 @@
         <v>1200</v>
       </c>
       <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3879,67 +4158,73 @@
         <v>4200</v>
       </c>
       <c r="E60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>6200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3947,20 +4232,20 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4006,8 +4291,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4044,23 +4335,23 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -4068,14 +4359,20 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,8 +4587,14 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4287,67 +4602,73 @@
         <v>4500</v>
       </c>
       <c r="E66" s="3">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="F66" s="3">
-        <v>6300</v>
+        <v>4500</v>
       </c>
       <c r="G66" s="3">
         <v>5000</v>
       </c>
       <c r="H66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I66" s="3">
         <v>5000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K66" s="3">
         <v>6200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4520,20 +4855,20 @@
         <v>100</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>100</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -4576,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4985,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-12100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-12100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-12500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-10600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-10200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-9300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-9300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-9000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-8300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-8300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-8400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-8200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5281,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-5300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1600</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-1300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-300</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5257,11 +5654,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
@@ -5269,11 +5666,11 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -5287,8 +5684,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,29 +6054,35 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -5657,23 +6090,23 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5693,10 +6126,16 @@
         <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,29 +6160,31 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -5757,25 +6198,25 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5789,8 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,8 +6378,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5937,17 +6396,17 @@
         <v>100</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5961,25 +6420,25 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5993,8 +6452,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,37 +6776,43 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6330,16 +6821,16 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6357,10 +6848,16 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,35 +6924,41 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -6463,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -6475,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -6493,6 +6996,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>DCAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,167 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>800</v>
       </c>
       <c r="K8" s="3">
         <v>800</v>
       </c>
       <c r="L8" s="3">
+        <v>800</v>
+      </c>
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1000</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
@@ -843,8 +847,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -852,10 +859,10 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>800</v>
       </c>
       <c r="G9" s="3">
         <v>800</v>
@@ -864,38 +871,38 @@
         <v>800</v>
       </c>
       <c r="I9" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="J9" s="3">
         <v>600</v>
       </c>
       <c r="K9" s="3">
+        <v>600</v>
+      </c>
+      <c r="L9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>900</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
@@ -917,58 +924,61 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>100</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -991,8 +1001,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1205,14 +1225,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,16 +1366,17 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1100</v>
       </c>
       <c r="F17" s="3">
         <v>1100</v>
@@ -1358,50 +1385,50 @@
         <v>1100</v>
       </c>
       <c r="H17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>900</v>
       </c>
       <c r="K17" s="3">
         <v>900</v>
       </c>
       <c r="L17" s="3">
+        <v>900</v>
+      </c>
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
@@ -1412,33 +1439,36 @@
         <v>0</v>
       </c>
       <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1453,29 +1483,29 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
@@ -1486,10 +1516,13 @@
         <v>0</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,61 +1549,62 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-500</v>
-      </c>
-      <c r="E20" s="3">
-        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>300</v>
       </c>
       <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
@@ -1579,64 +1613,67 @@
         <v>-100</v>
       </c>
       <c r="W20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1664,13 +1701,16 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1685,7 +1725,7 @@
         <v>200</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1703,17 +1743,17 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
       </c>
       <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
@@ -1721,99 +1761,105 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,61 +2471,64 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>500</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>-300</v>
       </c>
       <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>100</v>
@@ -2467,93 +2537,99 @@
         <v>100</v>
       </c>
       <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,22 +2921,23 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
@@ -2859,13 +2946,13 @@
         <v>200</v>
       </c>
       <c r="J41" s="3">
+        <v>200</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -2877,16 +2964,16 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
+      <c r="S41" s="3">
+        <v>100</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
@@ -2903,14 +2990,17 @@
       <c r="X41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2965,8 +3055,8 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>4</v>
+      <c r="U42" s="3">
+        <v>0</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>4</v>
@@ -2977,19 +3067,22 @@
       <c r="X42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -3028,13 +3121,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
@@ -3051,14 +3144,17 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3072,43 +3168,43 @@
         <v>200</v>
       </c>
       <c r="G44" s="3">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3">
         <v>600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
       </c>
       <c r="K44" s="3">
+        <v>200</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>500</v>
       </c>
       <c r="M44" s="3">
         <v>500</v>
       </c>
       <c r="N44" s="3">
+        <v>500</v>
+      </c>
+      <c r="O44" s="3">
         <v>600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>300</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
+      <c r="S44" s="3">
+        <v>200</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
@@ -3125,14 +3221,17 @@
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y44" s="3">
-        <v>0</v>
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3152,11 +3251,11 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -3164,11 +3263,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -3176,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3205,8 +3304,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3214,25 +3316,25 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>700</v>
       </c>
       <c r="H46" s="3">
         <v>700</v>
       </c>
       <c r="I46" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J46" s="3">
         <v>500</v>
       </c>
       <c r="K46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L46" s="3">
         <v>600</v>
@@ -3241,23 +3343,23 @@
         <v>600</v>
       </c>
       <c r="N46" s="3">
+        <v>600</v>
+      </c>
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>500</v>
       </c>
       <c r="Q46" s="3">
         <v>500</v>
       </c>
       <c r="R46" s="3">
+        <v>500</v>
+      </c>
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3273,14 +3375,17 @@
       <c r="X46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,31 +3458,34 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
       </c>
       <c r="F48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G48" s="3">
         <v>800</v>
       </c>
       <c r="H48" s="3">
+        <v>800</v>
+      </c>
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
@@ -3389,7 +3497,7 @@
         <v>300</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -3398,10 +3506,10 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
@@ -3409,8 +3517,8 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3427,8 +3535,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,34 +3920,37 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1600</v>
       </c>
       <c r="H54" s="3">
         <v>1600</v>
       </c>
       <c r="I54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>900</v>
       </c>
       <c r="L54" s="3">
         <v>900</v>
@@ -3836,20 +3962,20 @@
         <v>900</v>
       </c>
       <c r="O54" s="3">
+        <v>900</v>
+      </c>
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3865,14 +3991,17 @@
       <c r="X54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y54" s="3">
-        <v>0</v>
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,16 +4057,17 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1400</v>
       </c>
       <c r="F57" s="3">
         <v>1400</v>
@@ -3945,13 +4076,13 @@
         <v>1400</v>
       </c>
       <c r="H57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1100</v>
       </c>
       <c r="K57" s="3">
         <v>1100</v>
@@ -3963,29 +4094,29 @@
         <v>1100</v>
       </c>
       <c r="N57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
       </c>
       <c r="S57" s="3">
+        <v>500</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3995,58 +4126,61 @@
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y57" s="3">
-        <v>700</v>
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E58" s="3">
         <v>1500</v>
       </c>
       <c r="F58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1400</v>
       </c>
       <c r="K58" s="3">
         <v>1400</v>
       </c>
       <c r="L58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M58" s="3">
         <v>1500</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1400</v>
       </c>
       <c r="N58" s="3">
         <v>1400</v>
       </c>
       <c r="O58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P58" s="3">
         <v>1300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1000</v>
       </c>
       <c r="R58" s="3">
         <v>1000</v>
@@ -4057,8 +4191,8 @@
       <c r="T58" s="3">
         <v>1000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
+      <c r="U58" s="3">
+        <v>1000</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
@@ -4069,14 +4203,17 @@
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y58" s="3">
-        <v>200</v>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4084,56 +4221,56 @@
         <v>1200</v>
       </c>
       <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4143,71 +4280,74 @@
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3">
         <v>300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1700</v>
       </c>
       <c r="S60" s="3">
         <v>1700</v>
       </c>
       <c r="T60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4217,14 +4357,17 @@
       <c r="X60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4238,17 +4381,17 @@
         <v>300</v>
       </c>
       <c r="G61" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>400</v>
       </c>
       <c r="I61" s="3">
+        <v>400</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4297,8 +4440,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4341,20 +4487,20 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
@@ -4365,14 +4511,17 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,65 +4748,68 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>5000</v>
       </c>
       <c r="J66" s="3">
         <v>5000</v>
       </c>
       <c r="K66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L66" s="3">
         <v>6200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2600</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1700</v>
       </c>
       <c r="S66" s="3">
         <v>1700</v>
       </c>
       <c r="T66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4661,14 +4819,17 @@
       <c r="X66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z66" s="3">
         <v>1300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,13 +5008,16 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>100</v>
@@ -4861,17 +5029,17 @@
         <v>100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,64 +5162,67 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-9300</v>
       </c>
       <c r="P72" s="3">
         <v>-9300</v>
       </c>
       <c r="Q72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="R72" s="3">
         <v>-9000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-8300</v>
       </c>
       <c r="T72" s="3">
         <v>-8300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
+      <c r="U72" s="3">
+        <v>-8300</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>4</v>
@@ -5059,14 +5233,17 @@
       <c r="X72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-8200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,65 +5470,68 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1600</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5355,14 +5541,17 @@
       <c r="X76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5660,8 +5859,8 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
@@ -5672,8 +5871,8 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,8 +6274,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6069,22 +6286,22 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>200</v>
       </c>
       <c r="I89" s="3">
         <v>200</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -6096,20 +6313,20 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -6132,10 +6349,13 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,32 +6382,33 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -6204,11 +6425,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6218,8 +6439,8 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,32 +6611,35 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -6426,11 +6656,11 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6440,8 +6670,8 @@
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -6458,8 +6688,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7025,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6791,50 +7037,50 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6854,10 +7100,13 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,8 +7179,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6942,14 +7194,14 @@
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -6957,11 +7209,11 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -6972,17 +7224,17 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -7002,6 +7254,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
   <si>
     <t>DCAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,174 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>800</v>
       </c>
       <c r="L8" s="3">
         <v>800</v>
       </c>
       <c r="M8" s="3">
+        <v>800</v>
+      </c>
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1000</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
@@ -850,22 +854,25 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>800</v>
       </c>
       <c r="H9" s="3">
         <v>800</v>
@@ -874,38 +881,38 @@
         <v>800</v>
       </c>
       <c r="J9" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K9" s="3">
         <v>600</v>
       </c>
       <c r="L9" s="3">
+        <v>600</v>
+      </c>
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>900</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
@@ -927,8 +934,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,52 +946,52 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
+      <c r="T10" s="3">
+        <v>100</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
@@ -1004,8 +1014,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1046,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1124,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1204,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1228,14 +1248,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1264,8 +1284,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1364,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,19 +1393,20 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1100</v>
       </c>
       <c r="G17" s="3">
         <v>1100</v>
@@ -1388,50 +1415,50 @@
         <v>1100</v>
       </c>
       <c r="I17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>900</v>
       </c>
       <c r="L17" s="3">
         <v>900</v>
       </c>
       <c r="M17" s="3">
+        <v>900</v>
+      </c>
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
         <v>0</v>
       </c>
@@ -1442,10 +1469,13 @@
         <v>0</v>
       </c>
       <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1453,25 +1483,25 @@
         <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1486,29 +1516,29 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
@@ -1519,10 +1549,13 @@
         <v>0</v>
       </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,64 +1583,65 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
       </c>
       <c r="H20" s="3">
+        <v>300</v>
+      </c>
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>-100</v>
@@ -1616,67 +1650,70 @@
         <v>-100</v>
       </c>
       <c r="X20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1704,16 +1741,19 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
@@ -1728,7 +1768,7 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1746,17 +1786,17 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
       </c>
       <c r="R22" s="3">
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1764,102 +1804,108 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1935,8 +1981,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,64 +2541,67 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-300</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
       </c>
       <c r="H32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>100</v>
@@ -2540,96 +2610,102 @@
         <v>100</v>
       </c>
       <c r="X32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,8 +3008,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2931,16 +3018,16 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
@@ -2949,13 +3036,13 @@
         <v>200</v>
       </c>
       <c r="K41" s="3">
+        <v>200</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2967,16 +3054,16 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
+      <c r="T41" s="3">
+        <v>100</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
@@ -2993,14 +3080,17 @@
       <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3058,8 +3148,8 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>4</v>
+      <c r="V42" s="3">
+        <v>0</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>4</v>
@@ -3070,23 +3160,26 @@
       <c r="Y42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
@@ -3124,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
@@ -3147,19 +3240,22 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
@@ -3171,43 +3267,43 @@
         <v>200</v>
       </c>
       <c r="H44" s="3">
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
       <c r="L44" s="3">
+        <v>200</v>
+      </c>
+      <c r="M44" s="3">
         <v>300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>500</v>
       </c>
       <c r="N44" s="3">
         <v>500</v>
       </c>
       <c r="O44" s="3">
+        <v>500</v>
+      </c>
+      <c r="P44" s="3">
         <v>600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>300</v>
-      </c>
-      <c r="R44" s="3">
-        <v>200</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
+      <c r="T44" s="3">
+        <v>200</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
@@ -3224,14 +3320,17 @@
       <c r="Y44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z44" s="3">
-        <v>0</v>
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3254,11 +3353,11 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -3266,11 +3365,11 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -3278,16 +3377,16 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3307,37 +3406,40 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
       </c>
       <c r="F46" s="3">
+        <v>300</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>700</v>
       </c>
       <c r="I46" s="3">
         <v>700</v>
       </c>
       <c r="J46" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K46" s="3">
         <v>500</v>
       </c>
       <c r="L46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M46" s="3">
         <v>600</v>
@@ -3346,23 +3448,23 @@
         <v>600</v>
       </c>
       <c r="O46" s="3">
+        <v>600</v>
+      </c>
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>500</v>
       </c>
       <c r="R46" s="3">
         <v>500</v>
       </c>
       <c r="S46" s="3">
+        <v>500</v>
+      </c>
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3378,14 +3480,17 @@
       <c r="Y46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,34 +3566,37 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>700</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
       </c>
       <c r="G48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H48" s="3">
         <v>800</v>
       </c>
       <c r="I48" s="3">
+        <v>800</v>
+      </c>
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
@@ -3500,7 +3608,7 @@
         <v>300</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -3509,10 +3617,10 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
@@ -3520,8 +3628,8 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3538,8 +3646,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3726,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +3886,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3846,8 +3966,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,37 +4046,40 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1600</v>
       </c>
       <c r="I54" s="3">
         <v>1600</v>
       </c>
       <c r="J54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>800</v>
-      </c>
-      <c r="L54" s="3">
-        <v>900</v>
       </c>
       <c r="M54" s="3">
         <v>900</v>
@@ -3965,20 +4091,20 @@
         <v>900</v>
       </c>
       <c r="P54" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3994,14 +4120,17 @@
       <c r="Y54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z54" s="3">
-        <v>0</v>
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,8 +4188,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4067,10 +4198,10 @@
         <v>1600</v>
       </c>
       <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1400</v>
       </c>
       <c r="G57" s="3">
         <v>1400</v>
@@ -4079,13 +4210,13 @@
         <v>1400</v>
       </c>
       <c r="I57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1100</v>
       </c>
       <c r="L57" s="3">
         <v>1100</v>
@@ -4097,29 +4228,29 @@
         <v>1100</v>
       </c>
       <c r="O57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
-      </c>
-      <c r="R57" s="3">
-        <v>500</v>
       </c>
       <c r="S57" s="3">
         <v>500</v>
       </c>
       <c r="T57" s="3">
+        <v>500</v>
+      </c>
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4129,14 +4260,17 @@
       <c r="Y57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z57" s="3">
-        <v>700</v>
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA57" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4144,46 +4278,46 @@
         <v>1600</v>
       </c>
       <c r="E58" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F58" s="3">
         <v>1500</v>
       </c>
       <c r="G58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1400</v>
       </c>
       <c r="L58" s="3">
         <v>1400</v>
       </c>
       <c r="M58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N58" s="3">
         <v>1500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1400</v>
       </c>
       <c r="O58" s="3">
         <v>1400</v>
       </c>
       <c r="P58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1000</v>
       </c>
       <c r="S58" s="3">
         <v>1000</v>
@@ -4194,8 +4328,8 @@
       <c r="U58" s="3">
         <v>1000</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
+      <c r="V58" s="3">
+        <v>1000</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
@@ -4206,14 +4340,17 @@
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z58" s="3">
-        <v>200</v>
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4224,56 +4361,56 @@
         <v>1200</v>
       </c>
       <c r="F59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4283,74 +4420,77 @@
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1700</v>
       </c>
       <c r="T60" s="3">
         <v>1700</v>
       </c>
       <c r="U60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4360,14 +4500,17 @@
       <c r="Y60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="3">
         <v>1300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4384,17 +4527,17 @@
         <v>300</v>
       </c>
       <c r="H61" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>400</v>
       </c>
       <c r="J61" s="3">
+        <v>400</v>
+      </c>
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4443,8 +4586,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4490,20 +4636,20 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
@@ -4514,14 +4660,17 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,68 +4906,71 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>5000</v>
       </c>
       <c r="K66" s="3">
         <v>5000</v>
       </c>
       <c r="L66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M66" s="3">
         <v>6200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1700</v>
       </c>
       <c r="T66" s="3">
         <v>1700</v>
       </c>
       <c r="U66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4822,14 +4980,17 @@
       <c r="Y66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="3">
         <v>1300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5020,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>100</v>
@@ -5032,17 +5200,17 @@
         <v>100</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>100</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,67 +5336,70 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10200</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-9300</v>
       </c>
       <c r="Q72" s="3">
         <v>-9300</v>
       </c>
       <c r="R72" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="S72" s="3">
         <v>-9000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8100</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-8300</v>
       </c>
       <c r="U72" s="3">
         <v>-8300</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
+      <c r="V72" s="3">
+        <v>-8300</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>4</v>
@@ -5236,14 +5410,17 @@
       <c r="Y72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-8400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-8200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,68 +5656,71 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1600</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5544,14 +5730,17 @@
       <c r="Y76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6013,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5862,8 +6061,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
@@ -5874,8 +6073,8 @@
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5892,8 +6091,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,8 +6491,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6289,22 +6506,22 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>200</v>
       </c>
       <c r="J89" s="3">
         <v>200</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -6316,20 +6533,20 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -6352,10 +6569,13 @@
         <v>0</v>
       </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +6603,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6394,24 +6615,24 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -6428,11 +6649,11 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6442,8 +6663,8 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6460,8 +6681,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,8 +6841,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6623,26 +6853,26 @@
         <v>100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6659,11 +6889,11 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6673,8 +6903,8 @@
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6691,8 +6921,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6953,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7031,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,8 +7271,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7040,50 +7286,50 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -7103,10 +7349,13 @@
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,13 +7431,16 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
@@ -7197,14 +7449,14 @@
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -7212,11 +7464,11 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -7227,17 +7479,17 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -7257,6 +7509,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCAC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>DCAC</t>
   </si>
@@ -6609,14 +6609,14 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -6625,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
